--- a/자유수강권/아이로보(재료).xlsx
+++ b/자유수강권/아이로보(재료).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
   <si>
     <t>주야</t>
   </si>
@@ -145,6 +145,12 @@
     <t>나우진</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>김준혁</t>
+  </si>
+  <si>
     <t>김휘래</t>
   </si>
   <si>
@@ -185,6 +191,12 @@
   </si>
   <si>
     <t>허재윤</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>방세영</t>
   </si>
 </sst>
 </file>
@@ -553,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -962,13 +974,13 @@
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -985,16 +997,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
@@ -1011,10 +1023,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>47</v>
@@ -1037,16 +1049,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1063,10 +1075,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>52</v>
@@ -1089,24 +1101,76 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
